--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/108.traduzir_textos/84+-+Traduzir+Textos.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/108.traduzir_textos/84+-+Traduzir+Textos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\108.traduzir_textos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4D8940-5AED-43E1-AE6E-C2042C0B6EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A71448-8429-4E96-82AC-2DE1C98AE7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -70,37 +70,22 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Soma Acumulada</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
-    <t>Identification</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Situation</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Product A</t>
-  </si>
-  <si>
-    <t>Available</t>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Data de início</t>
+  </si>
+  <si>
+    <t>Produto A</t>
+  </si>
+  <si>
+    <t>Disponível</t>
   </si>
 </sst>
 </file>
@@ -219,7 +204,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -256,9 +241,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
@@ -307,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -453,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,7 +588,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +609,7 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="5"/>
       <c r="D2" s="15"/>
       <c r="E2" s="9"/>
@@ -641,46 +623,46 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>5.63</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>44689</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -705,12 +687,12 @@
     <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
